--- a/Previgesst/Templates/AnalyseRisquesen.xlsx
+++ b/Previgesst/Templates/AnalyseRisquesen.xlsx
@@ -1704,7 +1704,9 @@
   <dimension ref="A1:X485"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12074,8 +12076,11 @@
       <formula>"Oui"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="5" scale="55" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.196850393700787" header="0.196850393700787" footer="0.196850393700787"/>
+  <pageSetup paperSize="5" scale="58" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -12088,7 +12093,9 @@
   <dimension ref="A1:H646"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16670,8 +16677,11 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A1:D2"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" scale="68" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="5" scale="65" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -16683,7 +16693,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="A1:XFD1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
